--- a/result/with_base/234/arousal/s15_8.xlsx
+++ b/result/with_base/234/arousal/s15_8.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7350000143051147</v>
+        <v>0.7639508843421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41729.810546875</v>
+        <v>11274.158203125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7522727305238898</v>
+        <v>0.7949711119427401</v>
       </c>
       <c r="E2" t="n">
-        <v>41733.98863636364</v>
+        <v>11273.71346507353</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.8080357015132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40958.38671875</v>
+        <v>10967.93798828125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8500000075860457</v>
+        <v>0.8556985294117647</v>
       </c>
       <c r="E3" t="n">
-        <v>40960.92826704546</v>
+        <v>10967.15412454044</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8924999833106995</v>
+        <v>0.8364955484867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40195.61328125</v>
+        <v>10667.74951171875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8906818194822832</v>
+        <v>0.882549895959742</v>
       </c>
       <c r="E4" t="n">
-        <v>40196.85404829546</v>
+        <v>10666.55606617647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8487723171710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39439.984375</v>
+        <v>10374.61181640625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9232954545454546</v>
+        <v>0.8940388665479773</v>
       </c>
       <c r="E5" t="n">
-        <v>39440.35333806818</v>
+        <v>10373.08162913603</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.87109375</v>
       </c>
       <c r="C6" t="n">
-        <v>38694.658203125</v>
+        <v>10086.3681640625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9255681796507402</v>
+        <v>0.9215467431965996</v>
       </c>
       <c r="E6" t="n">
-        <v>38694.93146306818</v>
+        <v>10084.97208180147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.875</v>
       </c>
       <c r="C7" t="n">
-        <v>37959.06640625</v>
+        <v>9805.2646484375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9486363638531078</v>
+        <v>0.9247636549613055</v>
       </c>
       <c r="E7" t="n">
-        <v>37958.9765625</v>
+        <v>9803.710822610294</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.8744419515132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37235.556640625</v>
+        <v>9529.978515625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.951477278362621</v>
+        <v>0.9401260509210474</v>
       </c>
       <c r="E8" t="n">
-        <v>37235.27059659091</v>
+        <v>9528.666187959559</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.945000022649765</v>
+        <v>0.8816964328289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36523.892578125</v>
+        <v>9261.90771484375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9464772668751803</v>
+        <v>0.9504332998219658</v>
       </c>
       <c r="E9" t="n">
-        <v>36523.38423295454</v>
+        <v>9260.232421875</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9375</v>
+        <v>0.8777901828289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35824.037109375</v>
+        <v>8999.69921875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9602272673086687</v>
+        <v>0.9564075645278481</v>
       </c>
       <c r="E10" t="n">
-        <v>35823.36683238636</v>
+        <v>8998.153377757353</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C11" t="n">
-        <v>35135.951171875</v>
+        <v>8743.8427734375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9672727422280745</v>
+        <v>0.9585084038622239</v>
       </c>
       <c r="E11" t="n">
-        <v>35135.28551136364</v>
+        <v>8742.489774816177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C12" t="n">
-        <v>34459.845703125</v>
+        <v>8494.6357421875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.971931820566004</v>
+        <v>0.9627100825309753</v>
       </c>
       <c r="E12" t="n">
-        <v>34459.09801136364</v>
+        <v>8493.284122242647</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9375</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C13" t="n">
-        <v>33795.248046875</v>
+        <v>8251.501953125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9715909145095132</v>
+        <v>0.9696691176470589</v>
       </c>
       <c r="E13" t="n">
-        <v>33794.54367897727</v>
+        <v>8250.390969669117</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C14" t="n">
-        <v>33142.833984375</v>
+        <v>8014.6435546875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9740909283811395</v>
+        <v>0.9712447489009184</v>
       </c>
       <c r="E14" t="n">
-        <v>33141.84588068182</v>
+        <v>8013.606588924632</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.88671875</v>
       </c>
       <c r="C15" t="n">
-        <v>32501.6337890625</v>
+        <v>7784.01220703125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9726136326789856</v>
+        <v>0.9703256312538596</v>
       </c>
       <c r="E15" t="n">
-        <v>32500.77290482954</v>
+        <v>7782.873764935662</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C16" t="n">
-        <v>31872.1220703125</v>
+        <v>7558.87744140625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9823863723061301</v>
+        <v>0.9806985294117647</v>
       </c>
       <c r="E16" t="n">
-        <v>31870.93625710227</v>
+        <v>7557.97403492647</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8900669515132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31253.8046875</v>
+        <v>7340.311279296875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.985909104347229</v>
+        <v>0.9585084038622239</v>
       </c>
       <c r="E17" t="n">
-        <v>31252.50124289773</v>
+        <v>7339.143439797794</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30646.607421875</v>
+        <v>7126.725830078125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9817045547745444</v>
+        <v>0.9823398099226111</v>
       </c>
       <c r="E18" t="n">
-        <v>30645.26526988636</v>
+        <v>7125.741383272059</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C19" t="n">
-        <v>30050.9296875</v>
+        <v>6918.76904296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9739772894165732</v>
+        <v>0.9827337194891537</v>
       </c>
       <c r="E19" t="n">
-        <v>30049.22585227273</v>
+        <v>6918.07071461397</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8989955484867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29465.22265625</v>
+        <v>6716.7666015625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9731818329204213</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E20" t="n">
-        <v>29464.01544744318</v>
+        <v>6715.895938648897</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9151785671710968</v>
       </c>
       <c r="C21" t="n">
-        <v>28890.681640625</v>
+        <v>6519.8310546875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9843181967735291</v>
+        <v>0.9845719547832713</v>
       </c>
       <c r="E21" t="n">
-        <v>28889.43323863636</v>
+        <v>6519.102366727941</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C22" t="n">
-        <v>28326.1513671875</v>
+        <v>6328.236328125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9874606097445768</v>
       </c>
       <c r="E22" t="n">
-        <v>28325.30131392046</v>
+        <v>6327.492934283088</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9196428656578064</v>
       </c>
       <c r="C23" t="n">
-        <v>27772.1923828125</v>
+        <v>6141.66162109375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9879201685681063</v>
       </c>
       <c r="E23" t="n">
-        <v>27771.63068181818</v>
+        <v>6140.994140625</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C24" t="n">
-        <v>27229.0390625</v>
+        <v>5960.37255859375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9901136430827054</v>
+        <v>0.9737394942956812</v>
       </c>
       <c r="E24" t="n">
-        <v>27228.015625</v>
+        <v>5959.566233915441</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9029017984867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26695.71875</v>
+        <v>5783.58642578125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9827993687461404</v>
       </c>
       <c r="E25" t="n">
-        <v>26694.44353693182</v>
+        <v>5782.896197150735</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C26" t="n">
-        <v>26171.587890625</v>
+        <v>5611.774169921875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E26" t="n">
-        <v>26170.69034090909</v>
+        <v>5611.059369255515</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9375</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C27" t="n">
-        <v>25657.79296875</v>
+        <v>5444.742919921875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9810227372429587</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E27" t="n">
-        <v>25656.74360795454</v>
+        <v>5443.910127527573</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C28" t="n">
-        <v>25152.9638671875</v>
+        <v>5281.896728515625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9848863753405485</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E28" t="n">
-        <v>25152.04811789773</v>
+        <v>5281.275850183823</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C29" t="n">
-        <v>24657.837890625</v>
+        <v>5123.699951171875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E29" t="n">
-        <v>24656.72425426136</v>
+        <v>5123.114717371323</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C30" t="n">
-        <v>24171.2744140625</v>
+        <v>4969.917724609375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E30" t="n">
-        <v>24170.55912642046</v>
+        <v>4969.21866383272</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C31" t="n">
-        <v>23694.34375</v>
+        <v>4820.221923828125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9937500032511625</v>
+        <v>0.9822741606656242</v>
       </c>
       <c r="E31" t="n">
-        <v>23693.41512784091</v>
+        <v>4819.565199908088</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9375</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23226.17578125</v>
+        <v>4674.53515625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.9908088235294118</v>
       </c>
       <c r="E32" t="n">
-        <v>23225.11949573864</v>
+        <v>4674.008243336397</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C33" t="n">
-        <v>22766.3115234375</v>
+        <v>4533.052490234375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E33" t="n">
-        <v>22765.49129971591</v>
+        <v>4532.481904871323</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C34" t="n">
-        <v>22315.048828125</v>
+        <v>4395.392822265625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E34" t="n">
-        <v>22314.42631392046</v>
+        <v>4394.860724954044</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9029017984867096</v>
       </c>
       <c r="C35" t="n">
-        <v>21872.4599609375</v>
+        <v>4261.630859375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E35" t="n">
-        <v>21871.72602982954</v>
+        <v>4261.041130514706</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9068080484867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21437.8525390625</v>
+        <v>4131.417236328125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E36" t="n">
-        <v>21437.28568892046</v>
+        <v>4130.932732077206</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C37" t="n">
-        <v>21011.310546875</v>
+        <v>4004.945190429688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9792542001780342</v>
       </c>
       <c r="E37" t="n">
-        <v>21010.89186789773</v>
+        <v>4004.466007008272</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20593.1005859375</v>
+        <v>3881.95068359375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9848345588235294</v>
       </c>
       <c r="E38" t="n">
-        <v>20592.47176846591</v>
+        <v>3881.472670611213</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C39" t="n">
-        <v>20182.6181640625</v>
+        <v>3762.316650390625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E39" t="n">
-        <v>20181.89630681818</v>
+        <v>3761.939725988052</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C40" t="n">
-        <v>19779.8486328125</v>
+        <v>3646.18212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.991931823166934</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E40" t="n">
-        <v>19779.09108664773</v>
+        <v>3645.738669002757</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19384.4345703125</v>
+        <v>3533.18408203125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E41" t="n">
-        <v>19383.70809659091</v>
+        <v>3532.806267233456</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18996.326171875</v>
+        <v>3423.497192382812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9852284648839165</v>
       </c>
       <c r="E42" t="n">
-        <v>18995.77610085227</v>
+        <v>3423.07319910386</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18615.8134765625</v>
+        <v>3316.769165039062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E43" t="n">
-        <v>18615.05326704546</v>
+        <v>3316.416977826287</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C44" t="n">
-        <v>18242.095703125</v>
+        <v>3213.188110351562</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9783350825309753</v>
       </c>
       <c r="E44" t="n">
-        <v>18241.51438210227</v>
+        <v>3212.846105238971</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17875.421875</v>
+        <v>3112.582275390625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E45" t="n">
-        <v>17875.00479403409</v>
+        <v>3112.154497931985</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17515.7060546875</v>
+        <v>3014.676147460938</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9847689060603871</v>
       </c>
       <c r="E46" t="n">
-        <v>17515.34517045454</v>
+        <v>3014.349709903493</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C47" t="n">
-        <v>17162.8583984375</v>
+        <v>2919.640258789062</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9847689060603871</v>
       </c>
       <c r="E47" t="n">
-        <v>17162.42791193182</v>
+        <v>2919.309254365809</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C48" t="n">
-        <v>16816.7412109375</v>
+        <v>2827.3701171875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E48" t="n">
-        <v>16816.19620028409</v>
+        <v>2826.996438419118</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C49" t="n">
-        <v>16476.900390625</v>
+        <v>2737.68408203125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9621192216873169</v>
       </c>
       <c r="E49" t="n">
-        <v>16476.41459517046</v>
+        <v>2737.370993221507</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C50" t="n">
-        <v>16143.54541015625</v>
+        <v>2650.504638671875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9855567216873169</v>
       </c>
       <c r="E50" t="n">
-        <v>16143.04527698864</v>
+        <v>2650.219927619485</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,927 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C51" t="n">
-        <v>15816.23388671875</v>
+        <v>2565.91650390625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9873949569814345</v>
       </c>
       <c r="E51" t="n">
-        <v>15815.97283380682</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15495.28369140625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15495.01669034091</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15180.5947265625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15180.16166548295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14871.80615234375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14871.23002485795</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14568.552734375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14568.17347301136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14271.35888671875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9918181896209717</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14270.86106178977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13979.58203125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13979.12908380682</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13693.52197265625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13692.97132457386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13412.6396484375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13412.22975852273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13137.14208984375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13136.84889914773</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12867.119140625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12866.6669921875</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12601.8779296875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12601.61461292614</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12341.9384765625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12341.63982599432</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12087.10107421875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12086.63654119318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11836.7744140625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11836.46937144886</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11591.4443359375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11591.1162109375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11350.7353515625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11350.43599076705</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11114.68505859375</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11114.37491122159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10883.1357421875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10882.84783380682</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10655.90771484375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10655.76216264205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10433.2509765625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9918181896209717</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10433.05433238636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10214.86328125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10214.6220703125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10000.50048828125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10000.35901988636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9790.61669921875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9790.262251420454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9584.47705078125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.995568183335391</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9584.19921875</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9382.3671875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9382.142400568182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9184.283203125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9183.999289772728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8990.04443359375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8989.711470170454</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8799.3818359375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8799.166637073864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8612.4736328125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8612.353338068182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8429.27001953125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8429.146218039772</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.518796992481203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6090225563909775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6165413533834586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.706766917293233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7218045112781954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8195488721804511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.009345794392523364</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8195488721804511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.009345794392523364</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8646616541353384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.01869158878504673</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8646616541353384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.01869158878504673</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9849624060150376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.02803738317757009</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9849624060150376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.02803738317757009</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9924812030075187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.08411214953271028</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9924812030075187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.08411214953271028</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9964865434614575</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6355140186915887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6915887850467289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.719626168224299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7383177570093458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9158878504672897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.007518796992481203</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9158878504672897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.007518796992481203</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9719626168224299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01503759398496241</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9719626168224299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.01503759398496241</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9813084112149533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1353383458646616</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9813084112149533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1353383458646616</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9906542056074766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1804511278195489</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9906542056074766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1804511278195489</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9964865434614574</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2565.636603860294</v>
       </c>
     </row>
   </sheetData>
